--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1242038.237587485</v>
+        <v>1239337.132812532</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96.866713163928</v>
       </c>
       <c r="I2" t="n">
-        <v>88.09081815943091</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>104.3152872824286</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>113.7320450640837</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443454</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>84.30953183850134</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>154.1385898684633</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>16.15632264294845</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>36.29946757904885</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.9784896091972</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119.5293992401231</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.3211998975087</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>295.0913442068475</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83349180859358</v>
+        <v>411.8334918085936</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.72779446896601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9646330484317</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>154.4932117579457</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0681132513132</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>123.7541816074679</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30836251344152</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.61339202271515</v>
+        <v>35.61339202271519</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.43165252365253</v>
+        <v>30.43165252365262</v>
       </c>
       <c r="S9" t="n">
         <v>137.2048826855192</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>93.39166045449532</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>152.635942459275</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.97319914237099</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.19579633461512</v>
+        <v>21.19579633461521</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.321691302451</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2341465824415</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>71.10273938153412</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238018</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114097</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>302.130928390077</v>
+        <v>358.6087856860931</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794035181</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009526</v>
       </c>
       <c r="D13" t="n">
-        <v>57.68764556948435</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146334</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076761</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754683</v>
+        <v>359.5517498754681</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>190.1033901621219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986312</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>46.86766651429496</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833424</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.065608924279</v>
       </c>
       <c r="E22" t="n">
-        <v>20.92847288552876</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238306</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>23.10998325717197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016487</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853334</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>134.354216528028</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833528</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>172.0260335000783</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890396</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>99.97427419833826</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>78.89395497653969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703262</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>104.8913819999785</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>24.83266606353079</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.1686991936195</v>
       </c>
       <c r="E46" t="n">
-        <v>29.24923305751711</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="C2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="D2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="E2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="F2" t="n">
-        <v>293.4024563932561</v>
+        <v>126.0773463611703</v>
       </c>
       <c r="G2" t="n">
-        <v>103.9826713767712</v>
+        <v>112.8472117853541</v>
       </c>
       <c r="H2" t="n">
-        <v>103.9826713767712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>482.822241409741</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="U2" t="n">
-        <v>482.822241409741</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="V2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="W2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="X2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.822241409741</v>
+        <v>133.0228471103738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571.5688305734704</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>571.5688305734704</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>422.6344209122192</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>571.5688305734704</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>571.5688305734704</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U3" t="n">
-        <v>571.5688305734704</v>
+        <v>487.5180226099429</v>
       </c>
       <c r="V3" t="n">
-        <v>571.5688305734704</v>
+        <v>372.6371690098583</v>
       </c>
       <c r="W3" t="n">
-        <v>571.5688305734704</v>
+        <v>372.6371690098583</v>
       </c>
       <c r="X3" t="n">
-        <v>571.5688305734704</v>
+        <v>372.6371690098583</v>
       </c>
       <c r="Y3" t="n">
-        <v>571.5688305734704</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623018</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396344</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.6571940623217</v>
+        <v>931.087133138783</v>
       </c>
       <c r="C5" t="n">
-        <v>572.69467712191</v>
+        <v>931.087133138783</v>
       </c>
       <c r="D5" t="n">
-        <v>214.4289785151595</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E5" t="n">
-        <v>214.4289785151595</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F5" t="n">
-        <v>207.483477765956</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G5" t="n">
         <v>122.3223344947425</v>
@@ -4568,10 +4568,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4595,22 +4595,22 @@
         <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V5" t="n">
-        <v>1705.262284299213</v>
+        <v>1670.455628473019</v>
       </c>
       <c r="W5" t="n">
-        <v>1705.262284299213</v>
+        <v>1317.686973202905</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.796526038133</v>
+        <v>1317.686973202905</v>
       </c>
       <c r="Y5" t="n">
-        <v>941.6571940623217</v>
+        <v>1317.686973202905</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.2207619161452</v>
+        <v>562.6602193536529</v>
       </c>
       <c r="C6" t="n">
-        <v>475.2207619161452</v>
+        <v>388.2071900725259</v>
       </c>
       <c r="D6" t="n">
-        <v>475.2207619161452</v>
+        <v>239.2727804112747</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
         <v>80.03532540581918</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>1400.563316948358</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.461727081622</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="V6" t="n">
-        <v>937.3096188498796</v>
+        <v>1336.36461757572</v>
       </c>
       <c r="W6" t="n">
-        <v>683.072262121678</v>
+        <v>1146.487355344208</v>
       </c>
       <c r="X6" t="n">
-        <v>475.2207619161452</v>
+        <v>938.6358551386747</v>
       </c>
       <c r="Y6" t="n">
-        <v>475.2207619161452</v>
+        <v>730.8755563737209</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>376.7296596422368</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>376.7296596422368</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>229.8397121443264</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4756,19 +4756,19 @@
         <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>208.3401055254756</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>208.3401055254756</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>208.3401055254756</v>
       </c>
       <c r="X7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1211.270298196618</v>
+        <v>1299.469939226204</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.270298196618</v>
+        <v>930.5074222857927</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0045995898677</v>
+        <v>930.5074222857927</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2163469916234</v>
+        <v>544.7191696875485</v>
       </c>
       <c r="F8" t="n">
-        <v>56.23044220201582</v>
+        <v>537.7736689383451</v>
       </c>
       <c r="G8" t="n">
-        <v>44.27742017313341</v>
+        <v>121.7802428690587</v>
       </c>
       <c r="H8" t="n">
-        <v>44.27742017313341</v>
+        <v>121.7802428690587</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27742017313341</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="J8" t="n">
-        <v>156.5453885494322</v>
+        <v>156.5453885494326</v>
       </c>
       <c r="K8" t="n">
-        <v>375.5444889229411</v>
+        <v>375.5444889229416</v>
       </c>
       <c r="L8" t="n">
-        <v>684.1340000193456</v>
+        <v>684.1340000193463</v>
       </c>
       <c r="M8" t="n">
         <v>1059.168727391408</v>
       </c>
       <c r="N8" t="n">
-        <v>1444.885717117919</v>
+        <v>1444.885717117918</v>
       </c>
       <c r="O8" t="n">
-        <v>1795.772071623107</v>
+        <v>1795.772071623106</v>
       </c>
       <c r="P8" t="n">
-        <v>2060.744456291609</v>
+        <v>2060.744456291608</v>
       </c>
       <c r="Q8" t="n">
-        <v>2211.554935535261</v>
+        <v>2211.55493553526</v>
       </c>
       <c r="R8" t="n">
-        <v>2213.87100865667</v>
+        <v>2213.871008656669</v>
       </c>
       <c r="S8" t="n">
-        <v>2213.87100865667</v>
+        <v>2082.593601537041</v>
       </c>
       <c r="T8" t="n">
-        <v>2213.87100865667</v>
+        <v>1926.539852286591</v>
       </c>
       <c r="U8" t="n">
-        <v>2213.87100865667</v>
+        <v>1672.935697487284</v>
       </c>
       <c r="V8" t="n">
-        <v>1882.808121313099</v>
+        <v>1672.935697487284</v>
       </c>
       <c r="W8" t="n">
-        <v>1882.808121313099</v>
+        <v>1672.935697487284</v>
       </c>
       <c r="X8" t="n">
-        <v>1509.34236305202</v>
+        <v>1299.469939226204</v>
       </c>
       <c r="Y8" t="n">
-        <v>1509.34236305202</v>
+        <v>1299.469939226204</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.515739510128</v>
+        <v>413.9410277149838</v>
       </c>
       <c r="C9" t="n">
-        <v>300.515739510128</v>
+        <v>239.4879984338567</v>
       </c>
       <c r="D9" t="n">
-        <v>300.515739510128</v>
+        <v>239.4879984338567</v>
       </c>
       <c r="E9" t="n">
-        <v>300.515739510128</v>
+        <v>80.25054342840124</v>
       </c>
       <c r="F9" t="n">
-        <v>300.515739510128</v>
+        <v>80.25054342840124</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5115156642008</v>
+        <v>80.25054342840124</v>
       </c>
       <c r="H9" t="n">
         <v>80.25054342840124</v>
       </c>
       <c r="I9" t="n">
-        <v>44.27742017313341</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="J9" t="n">
-        <v>92.32560606848449</v>
+        <v>92.32560606848435</v>
       </c>
       <c r="K9" t="n">
-        <v>252.6024334910155</v>
+        <v>252.6024334910151</v>
       </c>
       <c r="L9" t="n">
-        <v>514.4369485047785</v>
+        <v>514.4369485047779</v>
       </c>
       <c r="M9" t="n">
-        <v>839.342345761887</v>
+        <v>839.3423457618861</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.255667013956</v>
+        <v>1187.255667013955</v>
       </c>
       <c r="O9" t="n">
-        <v>1483.30859037647</v>
+        <v>1483.308590376468</v>
       </c>
       <c r="P9" t="n">
-        <v>1701.584095618382</v>
+        <v>1701.58409561838</v>
       </c>
       <c r="Q9" t="n">
-        <v>1797.5762939522</v>
+        <v>1797.576293952198</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.837250999015</v>
+        <v>1766.837250999013</v>
       </c>
       <c r="S9" t="n">
-        <v>1628.246460407582</v>
+        <v>1628.24646040758</v>
       </c>
       <c r="T9" t="n">
-        <v>1433.617269092749</v>
+        <v>1433.617269092747</v>
       </c>
       <c r="U9" t="n">
-        <v>1205.517003440559</v>
+        <v>1205.517003440557</v>
       </c>
       <c r="V9" t="n">
-        <v>970.3648952088163</v>
+        <v>970.3648952088145</v>
       </c>
       <c r="W9" t="n">
-        <v>716.1275384806147</v>
+        <v>716.1275384806129</v>
       </c>
       <c r="X9" t="n">
-        <v>508.2760382750819</v>
+        <v>508.2760382750801</v>
       </c>
       <c r="Y9" t="n">
-        <v>300.515739510128</v>
+        <v>413.9410277149838</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.6295184220502</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="C10" t="n">
-        <v>359.4517987662168</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="D10" t="n">
-        <v>209.3351593538811</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="E10" t="n">
-        <v>61.42206577148794</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="F10" t="n">
-        <v>61.42206577148794</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="G10" t="n">
-        <v>61.42206577148794</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42206577148794</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="I10" t="n">
-        <v>61.42206577148794</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="J10" t="n">
-        <v>44.27742017313341</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="K10" t="n">
-        <v>95.54660022226417</v>
+        <v>95.54660022226403</v>
       </c>
       <c r="L10" t="n">
-        <v>191.0592970264683</v>
+        <v>191.059297026468</v>
       </c>
       <c r="M10" t="n">
-        <v>295.0223269524049</v>
+        <v>295.0223269524045</v>
       </c>
       <c r="N10" t="n">
-        <v>404.3708743014482</v>
+        <v>404.3708743014476</v>
       </c>
       <c r="O10" t="n">
-        <v>485.0588674359248</v>
+        <v>485.058867435924</v>
       </c>
       <c r="P10" t="n">
-        <v>535.0394137095402</v>
+        <v>535.0394137095393</v>
       </c>
       <c r="Q10" t="n">
-        <v>513.6295184220502</v>
+        <v>513.6295184220492</v>
       </c>
       <c r="R10" t="n">
-        <v>513.6295184220502</v>
+        <v>405.2237696316946</v>
       </c>
       <c r="S10" t="n">
-        <v>513.6295184220502</v>
+        <v>405.2237696316946</v>
       </c>
       <c r="T10" t="n">
-        <v>513.6295184220502</v>
+        <v>405.2237696316946</v>
       </c>
       <c r="U10" t="n">
-        <v>513.6295184220502</v>
+        <v>116.0983690433699</v>
       </c>
       <c r="V10" t="n">
-        <v>513.6295184220502</v>
+        <v>116.0983690433699</v>
       </c>
       <c r="W10" t="n">
-        <v>513.6295184220502</v>
+        <v>116.0983690433699</v>
       </c>
       <c r="X10" t="n">
-        <v>513.6295184220502</v>
+        <v>44.27742017313338</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.6295184220502</v>
+        <v>44.27742017313338</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.582538042864</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469186</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386835</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420322</v>
+        <v>704.5155104420326</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
         <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
         <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882244</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234593</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867201</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523631</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253516</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.765293992436</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.582538042864</v>
+        <v>1949.766908076668</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469186</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469186</v>
+        <v>477.1621322376507</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520017</v>
+        <v>900.4499396649607</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282782</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735873</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826876</v>
+        <v>203.8650582458561</v>
       </c>
       <c r="C13" t="n">
-        <v>283.6713627826875</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457706</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888921</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
         <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906988</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544747</v>
+        <v>834.2956531176433</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564574</v>
+        <v>606.3061022196259</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129273</v>
+        <v>385.5135230760958</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.0544497962737</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>612.1182668683668</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>612.1182668683668</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>464.2051732859737</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880633</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
@@ -5449,7 +5449,7 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856733</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.495493770044</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>962.7029146265135</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876686</v>
+        <v>344.9174178121604</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753329</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="F19" t="n">
-        <v>282.8695714929399</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474263</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797186</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597622</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835327</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835327</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D28" t="n">
-        <v>697.527634571197</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E28" t="n">
-        <v>549.614540988804</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2311.25175375397</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813772</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998257</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797742</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121639</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400716</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400716</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876689</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,22 +7567,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614388</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179087</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876689</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>411.963121559762</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>411.963121559762</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038342</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179087</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.10701026597656</v>
+        <v>27.62915296996044</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767525</v>
       </c>
       <c r="D13" t="n">
-        <v>90.92782744872801</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.71507747034035</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613728928</v>
+        <v>50.2915261372895</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>35.60626522691521</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>118.6564717779739</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788965</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393335</v>
       </c>
       <c r="E22" t="n">
-        <v>125.5054897610404</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267405038</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.5498640939301</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>83.05123379926026</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823389</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012459</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.37941682720995</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788563</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>146.8157004124974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194264</v>
+        <v>62.35543909864982</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>43.72409101823384</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="E46" t="n">
-        <v>117.1847295890521</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861643.1943706109</v>
+        <v>861643.1943706108</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937110.4485790194</v>
+        <v>937110.4485790193</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387903</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>942247.3008387903</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387903</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387903</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26320,16 +26320,16 @@
         <v>492625.0619185696</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958226</v>
+        <v>442233.6433958227</v>
       </c>
       <c r="F2" t="n">
         <v>481607.8629828184</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26338,13 +26338,13 @@
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140033</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208455</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861774</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>11460.51367737984</v>
+        <v>11460.51367737925</v>
       </c>
       <c r="E3" t="n">
-        <v>408312.2999680387</v>
+        <v>408312.2999680395</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051377</v>
+        <v>166521.3471051374</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557868</v>
+        <v>11167.2362355785</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854466</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487765</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.29035020002</v>
+        <v>2873.290350199934</v>
       </c>
       <c r="M3" t="n">
-        <v>106639.5191329071</v>
+        <v>106639.5191329073</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848911</v>
+        <v>43782.40655848903</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>171039.3658295523</v>
+        <v>171039.3658295525</v>
       </c>
       <c r="E4" t="n">
         <v>14727.57508456131</v>
@@ -26442,22 +26442,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
+        <v>14826.69604186735</v>
+      </c>
+      <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="L4" t="n">
-        <v>14826.69604186735</v>
-      </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86091.29148672914</v>
+        <v>86091.29148672911</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214717</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434254.2058480192</v>
+        <v>-434254.205848019</v>
       </c>
       <c r="C6" t="n">
-        <v>-159287.2543123774</v>
+        <v>-159287.2543123776</v>
       </c>
       <c r="D6" t="n">
-        <v>224033.8909249084</v>
+        <v>224033.8909249088</v>
       </c>
       <c r="E6" t="n">
-        <v>-66899.95381892458</v>
+        <v>-67109.91806277003</v>
       </c>
       <c r="F6" t="n">
-        <v>200124.2239432003</v>
+        <v>200078.318947635</v>
       </c>
       <c r="G6" t="n">
-        <v>357171.4977126506</v>
+        <v>357136.7597872149</v>
       </c>
       <c r="H6" t="n">
-        <v>368338.733948229</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="I6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227932</v>
       </c>
       <c r="J6" t="n">
-        <v>319273.7892196845</v>
+        <v>319239.0512942488</v>
       </c>
       <c r="K6" t="n">
-        <v>277078.7770833515</v>
+        <v>277044.0391579157</v>
       </c>
       <c r="L6" t="n">
-        <v>365465.443598029</v>
+        <v>365430.7056725934</v>
       </c>
       <c r="M6" t="n">
-        <v>261699.2148153217</v>
+        <v>261664.4768898861</v>
       </c>
       <c r="N6" t="n">
-        <v>324556.3273897399</v>
+        <v>324521.5894643044</v>
       </c>
       <c r="O6" t="n">
-        <v>365315.4359710044</v>
+        <v>365280.6980455687</v>
       </c>
       <c r="P6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227934</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>862.9748695021902</v>
+        <v>862.9748695021897</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>553.4677521641676</v>
+        <v>553.4677521641672</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086482</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.264204964506121</v>
+        <v>9.264204964505552</v>
       </c>
       <c r="E3" t="n">
-        <v>349.1953979923661</v>
+        <v>349.1953979923669</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>145.8707812218292</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>11.35279543800436</v>
+        <v>11.35279543800402</v>
       </c>
       <c r="E4" t="n">
-        <v>427.9205756444807</v>
+        <v>427.9205756444813</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173587</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
         <v>12.5629977736412</v>
@@ -27036,19 +27036,19 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598429</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800459</v>
+        <v>11.35279543800425</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444804</v>
+        <v>427.9205756444813</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173587</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800436</v>
+        <v>11.35279543800402</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444807</v>
+        <v>427.9205756444813</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173587</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
         <v>12.5629977736412</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>220.0271129422943</v>
       </c>
       <c r="I2" t="n">
-        <v>37.38049896054379</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988671</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>45.45495740852107</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>119.0685420853415</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.2051017684967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>327.5612030051254</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>173.6136686016716</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>141.4887578124525</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>63.71649355172244</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>29.08607377808927</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
         <v>148.5398113612452</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>62.38845549152848</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.64249745663307</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9453895236493</v>
+        <v>303.9453895236494</v>
       </c>
       <c r="I8" t="n">
-        <v>76.72779446896593</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9646330484316</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9092264837461</v>
+        <v>53.41601472580041</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0681132513132</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,22 +27932,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>11.73312545907766</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.30836251344154</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>112.291035322809</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>14.61087863935282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>148.3912803373881</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6517721680247</v>
+        <v>108.6517721680248</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.97319914237106</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.3216913024509</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>196.8965517281903</v>
@@ -28065,7 +28065,7 @@
         <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2341465824415</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>154.606916007503</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-3.393552105990239e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.969504453349465e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-2.643218977027573e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.221647908461828e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>5.441543363308506e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.804778548830654e-12</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.768693873567345e-12</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.295216568726972e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-2.447961833240697e-12</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.469245706541466</v>
+        <v>3.469245706541463</v>
       </c>
       <c r="H8" t="n">
-        <v>35.52941259211779</v>
+        <v>35.52941259211777</v>
       </c>
       <c r="I8" t="n">
-        <v>133.74809510144</v>
+        <v>133.7480951014399</v>
       </c>
       <c r="J8" t="n">
-        <v>294.447892785574</v>
+        <v>294.4478927855738</v>
       </c>
       <c r="K8" t="n">
-        <v>441.3010635434743</v>
+        <v>441.301063543474</v>
       </c>
       <c r="L8" t="n">
-        <v>547.4729918350428</v>
+        <v>547.4729918350424</v>
       </c>
       <c r="M8" t="n">
-        <v>609.1691901687495</v>
+        <v>609.1691901687492</v>
       </c>
       <c r="N8" t="n">
-        <v>619.0261845324605</v>
+        <v>619.0261845324602</v>
       </c>
       <c r="O8" t="n">
-        <v>584.5288725380389</v>
+        <v>584.5288725380384</v>
       </c>
       <c r="P8" t="n">
-        <v>498.8818691577963</v>
+        <v>498.881869157796</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.63950729228</v>
+        <v>374.6395072922797</v>
       </c>
       <c r="R8" t="n">
-        <v>217.9250056135355</v>
+        <v>217.9250056135354</v>
       </c>
       <c r="S8" t="n">
-        <v>79.05543653781373</v>
+        <v>79.05543653781368</v>
       </c>
       <c r="T8" t="n">
-        <v>15.18662308038527</v>
+        <v>15.18662308038526</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2775396565233172</v>
+        <v>0.277539656523317</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.856210096665089</v>
+        <v>1.856210096665087</v>
       </c>
       <c r="H9" t="n">
-        <v>17.92708172305494</v>
+        <v>17.92708172305493</v>
       </c>
       <c r="I9" t="n">
-        <v>63.90898797728485</v>
+        <v>63.90898797728481</v>
       </c>
       <c r="J9" t="n">
-        <v>175.3711477730819</v>
+        <v>175.3711477730818</v>
       </c>
       <c r="K9" t="n">
-        <v>299.7372242496428</v>
+        <v>299.7372242496426</v>
       </c>
       <c r="L9" t="n">
-        <v>403.0336878745843</v>
+        <v>403.033687874584</v>
       </c>
       <c r="M9" t="n">
-        <v>470.3213038786936</v>
+        <v>470.3213038786933</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7693093076451</v>
+        <v>482.7693093076448</v>
       </c>
       <c r="O9" t="n">
-        <v>441.6396013762766</v>
+        <v>441.6396013762762</v>
       </c>
       <c r="P9" t="n">
-        <v>354.454715739494</v>
+        <v>354.4547157394937</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9435905848278</v>
+        <v>236.9435905848277</v>
       </c>
       <c r="R9" t="n">
-        <v>115.2478514403114</v>
+        <v>115.2478514403113</v>
       </c>
       <c r="S9" t="n">
-        <v>34.47828841831862</v>
+        <v>34.47828841831859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.481829293136911</v>
+        <v>7.481829293136906</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221190853069138</v>
+        <v>0.1221190853069137</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556184190905589</v>
+        <v>1.556184190905588</v>
       </c>
       <c r="H10" t="n">
-        <v>13.83589217005152</v>
+        <v>13.83589217005151</v>
       </c>
       <c r="I10" t="n">
-        <v>46.79870275923354</v>
+        <v>46.79870275923351</v>
       </c>
       <c r="J10" t="n">
         <v>110.0222222970251</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8003087252129</v>
+        <v>180.8003087252128</v>
       </c>
       <c r="L10" t="n">
-        <v>231.3621478006364</v>
+        <v>231.3621478006363</v>
       </c>
       <c r="M10" t="n">
-        <v>243.9389454889551</v>
+        <v>243.938945488955</v>
       </c>
       <c r="N10" t="n">
-        <v>238.13862259558</v>
+        <v>238.1386225955798</v>
       </c>
       <c r="O10" t="n">
-        <v>219.9595618200009</v>
+        <v>219.9595618200008</v>
       </c>
       <c r="P10" t="n">
-        <v>188.2134043255268</v>
+        <v>188.2134043255267</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3092052948307</v>
+        <v>130.3092052948306</v>
       </c>
       <c r="R10" t="n">
-        <v>69.97170007471854</v>
+        <v>69.9717000747185</v>
       </c>
       <c r="S10" t="n">
-        <v>27.12004630878193</v>
+        <v>27.12004630878192</v>
       </c>
       <c r="T10" t="n">
-        <v>6.649150633869332</v>
+        <v>6.649150633869328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08488277404939586</v>
+        <v>0.0848827740493958</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485651</v>
       </c>
       <c r="H11" t="n">
         <v>49.90608543508993</v>
@@ -31759,31 +31759,31 @@
         <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726059</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216975</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857429</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898391</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294411</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.750149461514</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951044</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.389843704118852</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596482</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202556</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256418</v>
       </c>
       <c r="M12" t="n">
-        <v>638.7320230899743</v>
+        <v>660.6327957845333</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>237.336758373255</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>620.3452877431812</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071847</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
         <v>0.1715335284190411</v>
@@ -31914,7 +31914,7 @@
         <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691794</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836912</v>
@@ -31923,16 +31923,16 @@
         <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509177</v>
       </c>
       <c r="M13" t="n">
         <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
         <v>264.3723481761897</v>
@@ -31941,13 +31941,13 @@
         <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570615</v>
       </c>
       <c r="S13" t="n">
         <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826908</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765139</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32087,19 +32087,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670518</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>357.2897453669896</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737937</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157701</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4019882588877</v>
+        <v>113.4019882588875</v>
       </c>
       <c r="K8" t="n">
-        <v>221.2112124984938</v>
+        <v>221.2112124984935</v>
       </c>
       <c r="L8" t="n">
-        <v>311.7065768650555</v>
+        <v>311.7065768650552</v>
       </c>
       <c r="M8" t="n">
-        <v>378.8229569414768</v>
+        <v>378.8229569414765</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6131209358696</v>
+        <v>389.6131209358693</v>
       </c>
       <c r="O8" t="n">
-        <v>354.4306611163521</v>
+        <v>354.4306611163516</v>
       </c>
       <c r="P8" t="n">
-        <v>267.6488734025268</v>
+        <v>267.6488734025265</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.3338174178305</v>
+        <v>152.3338174178302</v>
       </c>
       <c r="R8" t="n">
-        <v>2.339467799403423</v>
+        <v>2.33946779940328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.53352110641524</v>
+        <v>48.53352110641512</v>
       </c>
       <c r="K9" t="n">
-        <v>161.8957852752839</v>
+        <v>161.8957852752836</v>
       </c>
       <c r="L9" t="n">
-        <v>264.4793080947101</v>
+        <v>264.4793080947098</v>
       </c>
       <c r="M9" t="n">
-        <v>328.1872699566753</v>
+        <v>328.187269956675</v>
       </c>
       <c r="N9" t="n">
-        <v>351.4275972243119</v>
+        <v>351.4275972243115</v>
       </c>
       <c r="O9" t="n">
-        <v>299.0433569318321</v>
+        <v>299.0433569318318</v>
       </c>
       <c r="P9" t="n">
-        <v>220.4803083251637</v>
+        <v>220.4803083251635</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.96181649880629</v>
+        <v>96.96181649880614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.78705055467753</v>
+        <v>51.78705055467742</v>
       </c>
       <c r="L10" t="n">
-        <v>96.47747151939811</v>
+        <v>96.47747151939797</v>
       </c>
       <c r="M10" t="n">
-        <v>105.0131615413501</v>
+        <v>105.0131615413499</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4530781303468</v>
+        <v>110.4530781303466</v>
       </c>
       <c r="O10" t="n">
-        <v>81.50302336815815</v>
+        <v>81.50302336815801</v>
       </c>
       <c r="P10" t="n">
-        <v>50.48540027637915</v>
+        <v>50.48540027637904</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276253</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517103</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584702</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077543</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062444</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156615</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458966</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457676</v>
       </c>
       <c r="M12" t="n">
-        <v>496.597989167956</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>105.9950462899217</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>477.7490432987368</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>363.907376606217</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936576</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701847</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
         <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
         <v>333.5494446190457</v>
@@ -35586,7 +35586,7 @@
         <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>214.6935009225451</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712702</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937518</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998974</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998989</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
